--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/10_Artvin_2020.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/10_Artvin_2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{96EC1CE5-AAB0-436B-BCB4-12AE115CDEFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F9EADE9-F516-431B-B617-492CADFC8600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="664" xr2:uid="{79B54160-F909-46BE-80C9-0B6AA70061BA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="664" xr2:uid="{9622B51C-4B37-4F7F-934F-258C71697E84}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="101" r:id="rId1"/>
@@ -972,15 +972,15 @@
   <cellStyles count="11">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{21F8688A-0C9D-4CD8-BACA-06C6D1D6930A}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{D876FFA2-D46F-4D8E-9F86-91F6E275FE16}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{DA3694B8-787B-4E1F-88D3-C3ABC4AB4145}"/>
-    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{BCFA4626-B94E-4299-BB46-23BE1004A483}"/>
-    <cellStyle name="Normal 4" xfId="6" xr:uid="{2330B0EB-BA6E-43B1-9D56-5052AF03D705}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="7" xr:uid="{7513DCD8-6525-4DA6-BFF7-40DD99F94E5E}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="8" xr:uid="{0E692BDA-DF3A-4F5F-9DC6-909EA7A2E499}"/>
-    <cellStyle name="Not 2" xfId="9" xr:uid="{F8755CAA-0E2D-4E10-A31D-868960450D6B}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="10" xr:uid="{5C9C53B6-088C-4156-9480-95A7690EAF5A}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{4529199B-7F04-49B6-99F4-EB4BF1AF9C60}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{4E8DEF83-5FBB-4452-A2ED-111F45545429}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{E321DCF4-8BFD-4C24-B063-B2CEB62B84C8}"/>
+    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{D66B50E2-0B66-4118-969B-E637C7558812}"/>
+    <cellStyle name="Normal 4" xfId="6" xr:uid="{A7D4AEFF-431B-4E8F-A578-95B4111E1925}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="7" xr:uid="{003BAA02-D5C9-4D91-834F-B3807FB1DAD1}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="8" xr:uid="{0F11729E-9A51-4461-BF20-BFCAAE6BA4AC}"/>
+    <cellStyle name="Not 2" xfId="9" xr:uid="{0D47DF87-CA2A-4FE5-89D1-3719D6138BB3}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="10" xr:uid="{9E230C06-5C13-4B40-8D2D-363393B0E0D4}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1350,7 +1350,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1583E4C-5FE7-4B06-B935-52785BEBDD89}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EA78F7D-6A0B-4EBC-871C-176A007DAE30}">
   <dimension ref="A2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2602,18 +2602,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{986DB43C-E3F2-45CF-A93B-45302C93AAC3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9CE17357-DEB3-4F07-B4FD-68563D06FF17}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{DDFDDA6E-74C8-4518-9A50-FC0A3F8BC15A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0E2DD1D9-AD1B-41DB-AD74-3A0966295174}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DD61C07B-1145-47AF-894C-99082F19D239}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8BC70F89-5D06-4E99-8652-40DAC050E28C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3508D75B-CE06-4A14-B71C-A1E00FA159FA}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A8BF3B35-7C77-4AB9-A76E-0C0865D1DCEA}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{83B640F9-BADF-4615-BAD3-3A1AA651DA50}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{44795C9B-5C86-475D-BA5A-2894390EC7C7}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E7252B91-3A1A-4907-AF63-0BA81B86EB1F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS!A1" xr:uid="{F04C1DA1-4710-4DB9-80CC-3BFB596EF493}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{620D8744-7E45-47ED-94BC-9935BBB7C592}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2EC4C81B-A64A-43E2-8C30-AEFF53AF0D24}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{9A4C1D3B-96B1-4BE5-B267-E2E5E3444A7A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BE606C2E-828A-497A-8766-B57FC21437EA}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{58B1A586-F9CA-4EE8-B5D8-E5179D212A98}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D9F76BDF-3798-4B93-A938-34E06E597753}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1B12F29F-2E61-4CF0-8A73-FD7C1246C12E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F4F53FA2-A123-4BD7-9DA6-D84246DDF651}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9A8B77FA-D0EA-4166-80FB-B9B59EFC2320}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B9E95095-26D6-40F6-AFE1-2D6F860E6284}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2D9E6A24-EFBB-4B73-8757-7E2189A13A2D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS!A1" xr:uid="{6414B392-BF58-4CDF-A3FA-CE87BED92F4D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2626,7 +2626,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D26E98B-933B-4664-93D4-D18ECFCCDE5C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50040D0F-EBEE-456D-9680-12ABB8E230F1}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3863,18 +3863,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6E19FFB3-4B45-43BE-BC42-CC76AB01E3E5}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B4049C09-7606-418A-A5EC-1A5143C52A93}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{613185DD-9C44-4AD9-B604-BA1C2EEC8DB2}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6DE2B8B7-029F-45DA-A0B8-B874B2926633}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5FBA26B7-A4A0-4B1D-862A-BCE48812DC2F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4C7403D9-C358-431C-9A41-AB4568722333}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{72088A85-37C6-4649-A0D2-BBA1D06B8AF7}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5A98BC29-9A45-470B-8682-B45AE6ABC2FF}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{AE4A1BB2-B4D7-4439-8F75-AC707E3B1751}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1FE0A7BC-B9CD-4FAD-A9AD-9855C17CA647}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4C260599-AEAF-443B-8013-9F234F4CE8FA}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS!A1" xr:uid="{E4AC0277-1289-4983-AB66-95B17DFE169E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{02457200-67ED-4043-80C0-083920B3DA2E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1B215EC6-7E2B-4194-96AA-2746060282FB}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B93778DE-F40E-4C85-A39F-5CA4DF4B0447}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{31CDE654-DC09-46FF-9DFC-1A03CA862D0A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{47C5747F-0DA9-4A3F-8D3C-BB4BE706606D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A61A24A9-AF6E-4A55-AA25-4B4BA17D07B3}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{94BAC4DE-554C-4CAA-BDA2-3D69C061BDDF}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6F3961AB-DABD-4CC9-93B4-0FE71D541B82}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C663145D-9FA3-4571-AD27-AE8D242C6328}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1320FBE6-CB9E-4D97-9EBD-919E59F6DBC6}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F445E1FE-1EC2-4428-9C10-D2B5CCB6AA0F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS!A1" xr:uid="{40EDB2CD-E07E-4170-A1A7-735754EE7B39}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3887,7 +3887,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D29A4D8C-0DE5-48A5-A432-C09A46394E25}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5721E808-8F57-46BF-93F1-EDF00F788320}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5120,18 +5120,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D54A931A-2F62-45F0-9BF5-C22AE7700838}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A1D9AF9D-604F-453F-AD4F-4C53876FC829}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{54BD2218-6166-45BF-900C-975BE2459DE4}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{CFC119A6-CBA1-42B7-9EFC-16FF97FDCFE9}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0D285268-27DD-49A3-B322-375090F152AC}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4C2BAF9E-9A41-49AD-8C51-324AD45507AA}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{110A2039-FD21-42AB-984C-45A516F9B8EE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7E49A186-4EA0-4B0F-9113-4C2AFCACDBE7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1D7AE509-88E9-4A5C-88A7-9A057EA17C87}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{87067C7F-78DA-4905-9098-AEC14CF5E7ED}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2CCF9161-E4AA-4FA1-8696-BE26AF400013}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS!A1" xr:uid="{F75C49E1-8BDB-4985-B65A-06C6CA97BDEA}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D49C3709-48B7-44F1-86DD-D5812F88AA6C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FC725560-4C7A-45B5-AAA7-129D128D6E58}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{7EF2212B-BEC7-4FC2-9745-C9AF2C0D76FF}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{84AF04DA-B5B4-4E98-96FE-36A43C0773FA}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1F899495-773C-49A3-BC7E-04C83969CB91}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1395071C-8894-4E12-9F4C-768C375AE017}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{34EFA8EE-8C15-4C16-8CF1-EFAB860DC362}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0149C78F-6C94-4A03-82EC-20496797120D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{63957B48-68E9-485C-8563-D57BD32AF847}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CF8738F4-EFF3-4CD9-AFD2-2F196A096B42}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F91237EB-49BB-4219-96D8-6AB1E92F4431}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS!A1" xr:uid="{48576AB7-167E-4065-BBF2-95C032582897}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5144,7 +5144,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A2D9E00-CAF7-4636-9B12-87CDBE9D3361}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F417024-0919-46C2-87DD-924BB35201D1}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -6366,18 +6366,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CC09E262-5B46-4A29-9C45-C5D828761268}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{95C1F6C0-BB09-477A-88D0-3ACEB46C8530}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F6788D35-47FE-4369-B0EA-569E4EF78DDB}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{CBA8363E-00A4-400C-BD02-96320DA70F1D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{39E28FA2-94BB-4629-82BD-046A0BE9060A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D6705A9B-12CA-4BCC-BF26-7389705E790C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1E97F14F-EB56-493A-BDCF-33C98F474A99}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C4169640-BE6E-4040-99D7-10612FB3F8B1}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{754DBD69-E36A-4896-8059-A5E325DFCB17}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{871E7A1D-A992-4541-B3F2-1DEC7035682B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F4951B3F-D172-4575-9EEA-4467BEF79F3C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS!A1" xr:uid="{C0582129-DEF1-438A-B2ED-68DF3BB75685}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E599EEE2-AD99-4904-AC54-19D9B16C6BB7}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0D0554B7-9AA1-4BC0-9889-484318B48F7C}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{936442EA-AB65-4B18-B9D1-91D6F0396416}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7795BAF0-BA52-4C85-A429-4DDEE2895B59}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{AB3590BC-4980-4BA8-B0E5-2769FDD64202}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{409AB88B-2F9F-4675-84FA-D050CB17D4B6}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{93402FFB-16E9-464C-9DE5-4FCDE53FF8FE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7C6657C5-DCB0-4045-AC51-11DC0FD83E75}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{EAF00B27-C061-4B1D-AA80-B11B2CAE5ED7}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8948578D-4CF1-4F2E-AB6C-2C4DABD243C5}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B0E9845F-DF85-4048-88AD-14B166701331}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS!A1" xr:uid="{8C1C0B6D-BDFD-42A1-91F0-727D208D5C43}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6390,7 +6390,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{927FB525-9ED0-4A66-8906-BF1A1368BF5A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48E64EBF-6B2E-4CAF-AFAB-DD33B1B07794}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7639,18 +7639,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0AC0B8E8-E79D-43E9-A73F-7F36CE6F7218}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{259017CC-FAA8-45DD-B69B-958ED59A50BE}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D29EFBEF-00F8-4FF1-A203-B0386056169B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{498CE268-13E7-4B72-A566-59686202CC3F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5D018C4C-0E8F-4A2A-A932-49A47CF8E741}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{604FAB64-E300-47CD-B7EB-441B50AAAA01}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{AFC0ED96-0989-4BFC-BDA6-022442D4FB14}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8DF3B62F-F8EC-4982-9389-5C502DD697A3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{423CE485-4AB2-49F7-87BB-F2D7CFDE3F5E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{372F52A1-F2C3-455E-8EA9-FB97E4F8DF96}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{79063437-F597-4A94-A511-036B1D7FBDB3}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS!A1" xr:uid="{376D883E-238C-4040-97EA-1CE2B1A3BDE8}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9A2D09A0-9A3A-4E67-BE1A-0D0E5DBE8598}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6CDA1A9A-A816-40A3-A250-CDCAD7E174E9}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{DD2B025A-3606-41A9-B67D-A23C43D67014}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1793B92E-7E79-4510-9159-E961AC2205D6}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BB94FA25-B282-4020-8411-6AB50ACD8148}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C0B7783B-FE4E-4E90-9D28-1CBF35807495}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F8A6DBF9-C6B8-4803-A6BF-730C27E0F197}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9F9DA716-378B-4937-B24D-E1F91EE306DA}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{58D76B8B-E4BE-4128-9EE0-D954C2F90EE8}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{30A7DD89-0B81-4B15-9ABE-72044F70585F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{07563AED-6BAB-4A2E-AC32-9B186936B494}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS!A1" xr:uid="{93AB0E17-FB8B-47D4-AAB2-C5AD7810FA10}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7663,7 +7663,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9285D409-D531-42D4-8FEE-862C386C78C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E42C484-DF71-46D3-A45C-5D55CACB6EF3}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8912,18 +8912,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AB30870A-0B85-4DC9-BB18-8F175E7315FB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DB4A7DC4-6E8E-4A8F-BEC7-66F5749517C1}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A6A077B8-8A4F-44C0-8FC2-404ECB9F4A1E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D9A9C07A-DDD3-4905-B236-25F319B8CBD8}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F09D1E42-4CE2-4DCF-A6C5-2A642BDB2918}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A2B837D7-33C0-4BEF-8A1D-AF720E1A75F7}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E3E9C4A5-F351-410A-9234-34F5D9523EC0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{87FEE179-33FC-49D6-9CC3-5342EDA096F9}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2BB13CA3-1B95-494A-83DC-001FDD90920D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{761EDB4C-74CA-4FB1-8A1A-8908E2D26686}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EF61285F-5BAF-407E-8C7D-9810B4A8BF89}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS!A1" xr:uid="{6849629F-9418-4C4B-9906-5F2EF269E56E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{99AD8E0F-B464-4327-A803-402B0C6FE61F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{55787F3C-120A-4383-8DC5-661F5EA7196D}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{BDD2D208-14FA-469C-90AD-450CB0A79106}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BB6804D8-8FA0-4C76-9D90-E775A663469A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0DB73DFD-035B-4FAB-8C61-4D592F03222C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FC1270AA-8752-4492-A0E2-8C58814634DD}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E275BC5E-E707-4719-B14A-9F6095D74460}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A1435848-BDCD-462B-9BF6-7C07A68B1BB7}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C87BC6C1-4E3F-49BA-BA07-1CD0C6603194}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CA4364E4-8F33-4E41-9E55-B96705990480}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{00F59D0B-6C55-46BD-A537-8FE1CDB91D08}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS!A1" xr:uid="{FA49565E-D9E3-46E2-8A0F-291CA740803A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8936,7 +8936,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51A92C03-3B5B-4203-AD1D-5DBA6887419B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A89676AC-BC84-40E1-95C4-A5A96E349632}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10185,18 +10185,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5C306AC1-5338-41E3-A094-A70D64DE2052}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{320A9C04-6A3F-4B43-B88A-0B33687E9D14}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{88512AB6-C28C-4BF8-AF8F-7ABBE014A74F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{70003B50-A2B4-4FF1-8036-F976369AD2AC}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8C981C0C-434A-4593-A32F-3F18A9479096}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{16C19FAC-0399-4C7E-BC1A-97C58E50E358}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{02EE5804-4A3D-4A80-B372-281FEE5B999E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D18F3842-E9E2-46BD-BADF-4F651C2F090A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D9438C7C-99F0-4EF5-BEFC-CD64DBB7F27D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{03028A31-DDD9-46A4-95F4-B57746F4F52E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B4BEF836-B9D2-43E6-8A90-22C7F3796799}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS!A1" xr:uid="{A7FC8354-D601-40BE-B3D1-268ED6E8688C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{14D28C29-A75F-4838-9EF9-098B55601A61}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F9EC5D38-BBDD-4FB2-A02D-0842D763F9C5}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{6B495BA1-75C6-4F44-BC8C-E9597137290F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B37F915D-5196-4CB0-817D-0ED1810A807A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F0DBFB86-C7EC-432A-BEC1-CB86FEFAA547}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{54460258-249F-4AAC-B06B-773F29F77A8E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{133F4008-F41F-4863-8DA5-B3DE0864B103}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F6B81D8E-AC2D-4CFC-A527-151F1E2371FB}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7046F6AE-206C-4051-B367-B913DA5D66A1}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{55EBD447-D5E3-4983-A380-B3E79ADB2499}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DF95E589-D2AA-4AAA-B010-0C1EB6452898}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS!A1" xr:uid="{1A95F971-5222-4C70-AD04-E9626C6710E1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10209,7 +10209,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{647853A8-DACC-44BA-9B6C-E4224094B70D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D5E2F93-BFD7-4138-9373-6675C1CBDB7D}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11458,18 +11458,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DFBF4B63-4A80-4831-9E47-C67EB844F422}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{303F9F11-EEBC-4E0C-81F4-051B2B1C33BA}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A689D588-20F3-430C-B2C5-C4329357FBAF}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2960668F-4872-4972-9CD8-F6863D9C39AE}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{709AFD76-6E9B-4CCF-A760-87F4B709BA90}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EB217E0D-1D83-4D48-95E8-40E415F50708}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A7082712-679D-46F5-9E7B-33B71D670394}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A3B2F99F-F7E5-4E15-8FE3-E465D152A0E7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C5184640-FCBA-4A8A-A041-E396AAE3D73B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DAD17D8F-26BA-425C-A37D-7A70B5B93B65}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BA642D83-71D3-4453-9B4D-A4F0827E7B87}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS!A1" xr:uid="{8E968057-868D-46C6-9F0D-94734560F76B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CE530F5F-6CD1-4B2F-BF54-20A68DBA8849}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A275592D-6142-4C62-BC96-EF64BF708698}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D809A6E1-2A32-43A0-9D7E-1C4941750228}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E5EAAA8D-4AC3-4628-940E-DD9F23D6F89F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DAEEE8BD-424E-428A-8526-058F72999BF4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{82F42304-9125-4338-86E2-3951B6D105D9}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D048D3B4-D707-4C2A-8094-6F18C1F818E8}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6D404922-A677-4143-A1C9-955B96899984}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E677A940-DA0D-4678-BDF2-BBA7C3B0FCA2}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6BACE18C-5BE8-40FF-960A-A2D92AEC4E3D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7F198E68-C38D-4B34-8CC6-02FE81E30F85}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS!A1" xr:uid="{BB96DFB4-BB52-4D0C-BE2D-53F5D85F8F49}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11482,7 +11482,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4510D5D3-339A-46CC-8730-D21933277B67}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0866135-1A0A-4673-A484-C4D450F53B36}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12731,18 +12731,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{ADFC0F79-7A52-4190-A957-18E0734DD833}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{769F88AB-233D-41DA-890D-D9CC8326C7A7}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{4A2382CF-42C5-4B9A-89C5-C26E14F4866B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0E8C12D5-FF5D-4578-B5F2-016348715C72}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{EAC67CBA-66E9-4A6C-B36D-6BFEEA43D134}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{94C631B4-8CDE-42EB-9FFB-AD9ECA1CA55B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3F2D3328-2226-434B-A4DB-98C7B1FDFC82}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F6E6FBC0-DD00-4F0F-ADAC-CB411B0CF1DC}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{751507BE-36ED-4F8A-96FF-6608813BFF7A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CB2F7301-B5F1-41AC-A36E-FA1CFDB3FD6B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{35B8164D-5133-499F-9DFC-ADF5AD5F3DF4}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS!A1" xr:uid="{2ABF297A-F8E7-4D14-BBA8-A0F31AFCAA17}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DB68D852-16F9-43B1-AED1-F630EF36496C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A06387E1-A60E-4AEB-8C2C-7D6C7D0799BA}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A4B2B85A-180D-4637-8D3B-B83E9C08A5F6}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{87E379F1-8B1F-443F-83DC-E97B6E74AE75}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5C1B0340-897D-4AD3-B1BA-2C8AC79B025F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3713725F-0F08-46C1-85A5-72CBA6B4CCD4}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E0E1FEC2-78CB-4FFB-AF29-035C073C5779}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{67766290-65A6-4641-9B7D-B1ABA3A8F615}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{40E8A592-2908-4C4D-81EE-C4197F92B5B9}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1E21ECEC-021D-42B5-B51B-D3D883F3E272}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F438CEB1-7455-4FAF-9C13-109634709DD2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS!A1" xr:uid="{1B1497DE-A3B8-4F4F-BD70-0BD9BD80B10D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12755,7 +12755,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F4F65F9-7A9E-40C8-BFA6-5B250BC1B09A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48F7FFEC-B3D6-49ED-B8AE-EA8BE3DCE50B}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14004,18 +14004,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FC081002-8054-408B-864F-905E41F6BCE5}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0442F4BC-38A3-4D6D-BCBD-3CF15797A314}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{3BD61F93-4F2D-4BFC-8D9F-AB3762C679C3}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{32733110-AF49-4225-AC47-916CA5345C68}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D2EBABE4-713B-42C6-A58D-729021D4BA45}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A9E20E21-A615-46EE-BE37-80D78E967364}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B4394FCB-A8B0-4F49-8C12-C01E3EC26FE3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BB2C67DF-340E-477D-BD0A-1DA294673171}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F6539A26-B74C-46E8-96B1-768B1B5CD3A8}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DD12BAF7-BAC5-4940-8E76-DBF29A2B7602}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D81794AF-6882-4F83-B3D2-5C6076B5A50E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS!A1" xr:uid="{652F7C94-FAF0-4877-818D-619A8210CA65}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{00178139-487D-4393-AB95-06A52CE22A8E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{08C3326C-F9CF-4125-92C8-6A221936D716}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{77996412-0F04-49F0-8662-581AE8BE00AA}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{623D6088-9F30-4994-92D4-D9E46AA2629B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D9F8581A-8825-4627-93CC-86EFE51713A7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{23F0D6EA-D1CE-4CDA-A5BD-54E2E79DAE25}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{54556539-E73F-4069-83CE-C21145206DE2}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5E5AC2CE-2787-4A05-B870-ACAFBE6C94F1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D0157F78-AFBE-49C1-8158-F7A52C9FCB5A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5FB07F22-E672-4476-87FF-DE13852FDBAE}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B15665B3-5CF5-46D4-9B86-37C3A6755490}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS!A1" xr:uid="{1CF4A996-6146-4AC3-B435-AC983286EA48}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14028,7 +14028,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B64963F-DE43-46BF-9AD3-C15C30154509}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB1D8407-001A-4E77-8708-4ECF313F9193}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -15275,18 +15275,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C3702134-3ED3-4637-9C2B-0DD8EC0A3995}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2CEF4F9C-DB5C-4883-BBE4-36C76BF4DB5F}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C9AB6999-F31E-43F0-AF80-41F3E97D4D78}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{20F75A60-56CF-4DAE-837E-2CFFB5EE6E44}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{056A0538-F0DC-4E25-92B9-3C8A7B868DAF}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B8942EA4-C331-485A-962F-7A14F20FB686}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4E5A47FA-4746-4C80-A30B-C013BED71998}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D8A627A8-3427-4C84-AEAF-236F3F0C08FA}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{28114FE5-DFDA-44E3-8DF4-D81AEF144C7A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DCB4F627-359C-4B4C-B0A3-ECC3762A29A6}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{95EF8D8A-1086-4035-A948-0693D14033CE}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS!A1" xr:uid="{A06482F3-9A32-4BA8-A6D3-16F3AA919124}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{ABBA3E15-E381-44D6-BE0C-7CC64DA089D7}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{52BB5A48-5F02-48D1-994B-3B931C650156}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{17C2D384-B04B-4A17-AB64-815D0FF32BA1}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B197A556-C8B7-4C40-B835-1AD9F7D132D3}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F34D08A3-4709-43D7-8FC3-F31317580244}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{00227602-7607-4262-B3A9-7B7CCB9BB231}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{AC91D391-D590-41FB-ABDB-A2092C7F05A3}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B5D5D536-EC68-4F35-B859-0AF97E524DDA}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{37B8CE33-B9CB-4E9D-9D49-C601FF22D741}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1CC0940B-AC7E-409A-9769-9C07B71A51FB}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FFF2E8D6-85A5-4084-AEF8-72369E67E0CB}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS!A1" xr:uid="{089E2A63-287C-4B08-A429-4CF2C31811D4}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15299,7 +15299,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50A22884-69CB-439D-8868-5EEFF95C35CE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{228F51E6-550F-4490-8F22-E2A5D9921843}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16544,18 +16544,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A85346BD-E032-4C62-91A3-7A2BAE470296}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BEC9D27C-453B-407A-93EF-9575C2CD2EC3}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D7839C07-E184-4B28-8AFE-D5E06062C085}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{EAAC4AC0-A4AA-4F30-9BAF-BCC4E15DAC65}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E6721689-EF5D-461B-9B4B-B395B26B989B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{52EB9B42-B39D-408D-B0A9-0FAA165CDACC}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A0556EA8-37B8-48B1-A8B8-C65FAE7F1175}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D5753819-BAE2-4730-AE8F-7F995FD7AF53}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{38CF348A-B96A-4F6F-8272-9A54475C3007}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{52C7EAF0-B25A-4C83-9290-BC8863E3BB3F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9F56DD7A-0963-49E3-96EE-7C846BCE660F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS!A1" xr:uid="{8A70437F-8E4B-4F73-A28C-FD59D0E4E314}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{24F8338A-6F57-4201-88B3-52CA46B7B885}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AF2CCCF8-E6F2-48DC-AC41-A04CDA878A39}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{69AD987C-93FE-4FAE-94CF-F5D41F82F8C7}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D1140928-C145-4368-B3B9-C75E1E2379FA}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{889AF586-12A2-44D9-8E00-34F9E0195AC6}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5DF27E92-F83F-437F-8B69-BE23246A39F5}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{06A13F6C-7C64-438F-98E6-614FA4F96A69}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{518D4E82-DEA9-4ECC-ABAC-20239FB9ADF2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{AB6CFA38-F980-4EE2-AE0B-8D28A2BB04BA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C7FE2664-D401-4DD5-9B36-152C05967767}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8D36CDF4-3936-4952-BC0E-7E29FC0C0477}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS!A1" xr:uid="{E46CB409-C50A-411F-BADE-3DA1062B2726}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
